--- a/spyder/Speicherdaten_FW.xlsx
+++ b/spyder/Speicherdaten_FW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniahense/Desktop/spyder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BD93FD-5DF3-9D47-A124-FEC09EB2F09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B495EE68-A131-1A46-AE5B-F34B55EA6DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33620" yWindow="-4920" windowWidth="30720" windowHeight="15400" xr2:uid="{05FFA31E-FFA3-6A4D-89F7-A44452815338}"/>
+    <workbookView xWindow="32980" yWindow="-6220" windowWidth="30720" windowHeight="15400" xr2:uid="{05FFA31E-FFA3-6A4D-89F7-A44452815338}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Speicherart</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Beton</t>
   </si>
   <si>
-    <t>min Temp</t>
-  </si>
-  <si>
     <t>Speicherkapazität in MWh</t>
   </si>
   <si>
@@ -126,6 +123,18 @@
   </si>
   <si>
     <t>Nein</t>
+  </si>
+  <si>
+    <t>Latent</t>
+  </si>
+  <si>
+    <t>Alluminium mit Graphit</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>min_Temp</t>
   </si>
 </sst>
 </file>
@@ -157,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +183,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -227,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -240,6 +267,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35036222-E555-6F47-98A4-BBCAA54E0885}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,16 +604,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -618,9 +648,11 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
       <c r="E2" s="5">
         <v>1000</v>
       </c>
@@ -654,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6">
         <v>80</v>
@@ -674,7 +706,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>15</v>
@@ -692,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -712,7 +744,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>350</v>
@@ -723,6 +755,29 @@
       <c r="F5">
         <f>60*100</f>
         <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>750</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5000</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/spyder/Speicherdaten_FW.xlsx
+++ b/spyder/Speicherdaten_FW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniahense/Desktop/spyder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B495EE68-A131-1A46-AE5B-F34B55EA6DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA91006-2F51-6F4A-BBBC-5D196AAF5D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32980" yWindow="-6220" windowWidth="30720" windowHeight="15400" xr2:uid="{05FFA31E-FFA3-6A4D-89F7-A44452815338}"/>
+    <workbookView xWindow="2580" yWindow="740" windowWidth="21680" windowHeight="16620" xr2:uid="{05FFA31E-FFA3-6A4D-89F7-A44452815338}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>Beton</t>
   </si>
   <si>
-    <t>Speicherkapazität in MWh</t>
-  </si>
-  <si>
     <t>gibt es in zwei Konfigurationen, hier nur größere angegeben(/ 30m*10m*10m); charging and delivering heat simultaneously</t>
   </si>
   <si>
@@ -128,13 +125,16 @@
     <t>Latent</t>
   </si>
   <si>
-    <t>Alluminium mit Graphit</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
     <t>min_Temp</t>
+  </si>
+  <si>
+    <t>Speicherkapazität</t>
+  </si>
+  <si>
+    <t>Aluminium mit Graphit</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,16 +604,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="13">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6">
         <v>80</v>
@@ -706,7 +706,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>15</v>
@@ -724,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -744,7 +744,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>350</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="14">
         <v>0</v>

--- a/spyder/Speicherdaten_FW.xlsx
+++ b/spyder/Speicherdaten_FW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniahense/Desktop/spyder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA91006-2F51-6F4A-BBBC-5D196AAF5D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733FA35-AC32-824A-9904-89070E5B8496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="740" windowWidth="21680" windowHeight="16620" xr2:uid="{05FFA31E-FFA3-6A4D-89F7-A44452815338}"/>
+    <workbookView xWindow="2520" yWindow="760" windowWidth="21680" windowHeight="16620" xr2:uid="{05FFA31E-FFA3-6A4D-89F7-A44452815338}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -166,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,12 +195,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -269,7 +263,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,7 +581,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,8 +760,8 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14">
-        <v>0</v>
+      <c r="D6" s="12">
+        <v>750</v>
       </c>
       <c r="E6">
         <v>750</v>
